--- a/26.- Repaso CR.xlsx
+++ b/26.- Repaso CR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasgonzalez/Library/Mobile Documents/com~apple~CloudDocs/ITESO/Risk Management/4.- Credit Risk/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luism/Desktop/6-ITESO/Administración de Riesgos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6AE543-7E12-6342-9B20-48FAC7697BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD12D57-B831-FE41-9D0E-17332547EE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16920" xr2:uid="{C163C897-52E8-6044-87AE-C4FD916C58D6}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="1" xr2:uid="{C163C897-52E8-6044-87AE-C4FD916C58D6}"/>
   </bookViews>
   <sheets>
     <sheet name="TRS" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>Prestamo</t>
   </si>
@@ -57,16 +57,102 @@
   <si>
     <t>ASUME QUE "HOY" ES 7-MAY-2024 PARA OBTENER LA RESPUESTA CORRECTA</t>
   </si>
+  <si>
+    <t xml:space="preserve">Respuesta </t>
+  </si>
+  <si>
+    <t>a)</t>
+  </si>
+  <si>
+    <t>Settle</t>
+  </si>
+  <si>
+    <t>Maturity</t>
+  </si>
+  <si>
+    <t>sube el LGD ---&gt; Sube la prima spread</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>sube el RR ---&gt; Disminuye la prima spread</t>
+  </si>
+  <si>
+    <t>YTW</t>
+  </si>
+  <si>
+    <t>rf</t>
+  </si>
+  <si>
+    <t>spread</t>
+  </si>
+  <si>
+    <t>sube el spread crediticio ---&gt; sube la prima</t>
+  </si>
+  <si>
+    <t>prob default</t>
+  </si>
+  <si>
+    <t>sube la prob de default ---&gt; sube la prima</t>
+  </si>
+  <si>
+    <t>Prima Spread</t>
+  </si>
+  <si>
+    <t>basis</t>
+  </si>
+  <si>
+    <t>Respuesta</t>
+  </si>
+  <si>
+    <t>Me paga el 53% que es el LGD ya que eso cubre el protection seller</t>
+  </si>
+  <si>
+    <t>Expected Credit Lose</t>
+  </si>
+  <si>
+    <t>Unexpected Credit Lose</t>
+  </si>
+  <si>
+    <t>ECL</t>
+  </si>
+  <si>
+    <t>Std</t>
+  </si>
+  <si>
+    <t>VaR</t>
+  </si>
+  <si>
+    <t>CVaR</t>
+  </si>
+  <si>
+    <t>UCL</t>
+  </si>
+  <si>
+    <t>Pregunta 1</t>
+  </si>
+  <si>
+    <t>Portafolio</t>
+  </si>
+  <si>
+    <t>2,4</t>
+  </si>
+  <si>
+    <t>1,37</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -97,13 +183,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -115,12 +227,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -137,8 +250,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Millares" xfId="3" builtinId="3"/>
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
@@ -167,7 +295,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:colOff>215900</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>77914</xdr:rowOff>
     </xdr:to>
@@ -194,6 +322,50 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="7772400" cy="2516314"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>136769</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>528381</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>24811</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA606EB2-E67C-8D24-6886-38B63CA264CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3008923"/>
+          <a:ext cx="9086227" cy="3580811"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -383,6 +555,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>81280</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>180306</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>147319</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22BC1509-02DC-2044-3677-A6F9CA7CD771}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12882880" y="7495506"/>
+          <a:ext cx="4114800" cy="1389413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -485,7 +701,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>814582</xdr:colOff>
+      <xdr:colOff>677813</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>179505</xdr:rowOff>
     </xdr:to>
@@ -529,7 +745,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>138315</xdr:colOff>
+      <xdr:colOff>1546</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
@@ -863,15 +1079,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD9A06C-89EC-CB43-AC23-DBBDBCD80138}">
-  <dimension ref="A1"/>
+  <dimension ref="B14:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="9">
+        <v>154581</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -879,18 +1107,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F77A18F8-A6C9-0741-90E0-0C5E481361C1}">
-  <dimension ref="A1:G201"/>
+  <dimension ref="A1:V201"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" customWidth="1"/>
     <col min="4" max="4" width="8.33203125" customWidth="1"/>
+    <col min="17" max="17" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -908,8 +1142,14 @@
       </c>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="Q1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -931,8 +1171,23 @@
       <c r="G2" s="1">
         <v>0.80999999999999994</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="Q2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -954,8 +1209,27 @@
       <c r="G3" s="1">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="Q3" s="18">
+        <v>801540</v>
+      </c>
+      <c r="R3" s="18">
+        <v>455640</v>
+      </c>
+      <c r="S3" s="18">
+        <v>2173100</v>
+      </c>
+      <c r="T3" s="18">
+        <v>2403500</v>
+      </c>
+      <c r="U3" s="19">
+        <f>S3-Q3</f>
+        <v>1371560</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -978,7 +1252,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1000,8 +1274,15 @@
       <c r="G5" s="1">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="Q5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R5" s="20">
+        <f>SUM(B2:B201)</f>
+        <v>10915381.897519564</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1024,7 +1305,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1047,7 +1328,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1070,7 +1351,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1093,7 +1374,7 @@
         <v>0.76999999999999991</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1116,7 +1397,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1139,7 +1420,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1161,8 +1442,14 @@
       <c r="G12" s="1">
         <v>0.69</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="Q12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R12" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1185,7 +1472,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1208,7 +1495,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1231,7 +1518,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1254,7 +1541,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1277,7 +1564,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1300,7 +1587,7 @@
         <v>0.55999999999999994</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1323,7 +1610,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1345,8 +1632,14 @@
       <c r="G20" s="1">
         <v>0.63000000000000012</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="Q20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R20" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1369,7 +1662,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1392,7 +1685,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1415,7 +1708,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1438,7 +1731,7 @@
         <v>0.67999999999999994</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1461,7 +1754,7 @@
         <v>0.78999999999999992</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1484,7 +1777,7 @@
         <v>0.60000000000000009</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1507,7 +1800,7 @@
         <v>0.69000000000000006</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1530,7 +1823,7 @@
         <v>0.8600000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1552,8 +1845,14 @@
       <c r="G29" s="1">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="Q29" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R29" s="21">
+        <v>0.35849999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1576,7 +1875,7 @@
         <v>0.64999999999999991</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1599,7 +1898,7 @@
         <v>0.78999999999999992</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1622,7 +1921,7 @@
         <v>0.79999999999999993</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1645,7 +1944,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1668,7 +1967,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1691,7 +1990,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1713,8 +2012,14 @@
       <c r="G36" s="1">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="Q36" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R36" s="21">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1737,7 +2042,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1760,7 +2065,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1783,7 +2088,7 @@
         <v>0.7400000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1806,7 +2111,7 @@
         <v>0.77999999999999992</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1829,7 +2134,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1852,7 +2157,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1875,7 +2180,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1898,7 +2203,7 @@
         <v>0.71000000000000008</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1921,7 +2226,7 @@
         <v>0.91999999999999993</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1944,7 +2249,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1967,7 +2272,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5614,24 +5919,149 @@
     <mergeCell ref="E1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F0B5F6-F39F-2141-856C-14326A3BECDD}">
-  <dimension ref="L15"/>
+  <dimension ref="L12:T42"/>
   <sheetViews>
-    <sheetView zoomScale="114" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q32" sqref="Q32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="12" max="12" width="12.6640625" customWidth="1"/>
     <col min="16" max="16" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="15" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="T12" s="8"/>
+    </row>
+    <row r="15" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L15" s="6" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="P27" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
+    </row>
+    <row r="28" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L29" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="10">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="30" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>9</v>
+      </c>
+      <c r="M30" s="10">
+        <v>46149</v>
+      </c>
+    </row>
+    <row r="32" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L32" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="11">
+        <f>1-M33</f>
+        <v>0.53</v>
+      </c>
+      <c r="N32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="12:15" x14ac:dyDescent="0.2">
+      <c r="L33" t="s">
+        <v>11</v>
+      </c>
+      <c r="M33" s="11">
+        <v>0.47</v>
+      </c>
+      <c r="N33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="12:15" x14ac:dyDescent="0.2">
+      <c r="L35" t="s">
+        <v>13</v>
+      </c>
+      <c r="M35" s="12">
+        <v>7.9729999999999995E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="12:15" x14ac:dyDescent="0.2">
+      <c r="L36" t="s">
+        <v>14</v>
+      </c>
+      <c r="M36" s="12">
+        <f>O36</f>
+        <v>4.6833E-2</v>
+      </c>
+      <c r="O36" s="16">
+        <f>(0.046914+0.046752)/2</f>
+        <v>4.6833E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="12:15" x14ac:dyDescent="0.2">
+      <c r="L37" t="s">
+        <v>15</v>
+      </c>
+      <c r="M37" s="12">
+        <f>M35-M36</f>
+        <v>3.2896999999999996E-2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="12:15" x14ac:dyDescent="0.2">
+      <c r="L39" t="s">
+        <v>17</v>
+      </c>
+      <c r="M39" s="14">
+        <f>M37/M32</f>
+        <v>6.2069811320754703E-2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="12:15" x14ac:dyDescent="0.2">
+      <c r="L41" t="s">
+        <v>19</v>
+      </c>
+      <c r="M41" s="17">
+        <v>178.97659999999999</v>
+      </c>
+      <c r="N41" t="s">
+        <v>20</v>
+      </c>
+      <c r="O41" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="12:15" x14ac:dyDescent="0.2">
+      <c r="M42" s="15">
+        <f>M41/10000</f>
+        <v>1.7897659999999999E-2</v>
       </c>
     </row>
   </sheetData>

--- a/26.- Repaso CR.xlsx
+++ b/26.- Repaso CR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luism/Desktop/6-ITESO/Administración de Riesgos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD12D57-B831-FE41-9D0E-17332547EE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70D6809-9466-C549-A22E-F6B801B78FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="1" xr2:uid="{C163C897-52E8-6044-87AE-C4FD916C58D6}"/>
   </bookViews>
@@ -1109,8 +1109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F77A18F8-A6C9-0741-90E0-0C5E481361C1}">
   <dimension ref="A1:V201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
